--- a/biology/Botanique/Scilla_mischtschenkoana/Scilla_mischtschenkoana.xlsx
+++ b/biology/Botanique/Scilla_mischtschenkoana/Scilla_mischtschenkoana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Scilla mischtschenkoana (la scille blanche ou scille Tubergeniana) est une espèce de plantes vivaces originaire du Caucase du Sud et du nord de l'Iran .
-Chaque plante pousse à partir d'un petit bulbe, avec 2-3 feuilles en forme de lanières et des fleurs bleu pâle avec des nervures plus foncées, qui fleurissent au début du printemps ou à la fin de l'hiver. Les plantes atteignent 5 à 15 cm de haut et environ 5 cm de large[1],[2],[3].
-S. mischtschenkoana[4] et le cultivar "Tubergeniana"[5] ont remporté le Prix du mérite des jardins de la Royal Horticultural Society.
+Chaque plante pousse à partir d'un petit bulbe, avec 2-3 feuilles en forme de lanières et des fleurs bleu pâle avec des nervures plus foncées, qui fleurissent au début du printemps ou à la fin de l'hiver. Les plantes atteignent 5 à 15 cm de haut et environ 5 cm de large.
+S. mischtschenkoana et le cultivar "Tubergeniana" ont remporté le Prix du mérite des jardins de la Royal Horticultural Society.
 </t>
         </is>
       </c>
